--- a/src/main/resources/templates/业务比例分析.xlsx
+++ b/src/main/resources/templates/业务比例分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18495" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18495" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总分析" sheetId="10" r:id="rId1"/>
@@ -1794,11 +1794,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197384832"/>
-        <c:axId val="197017984"/>
+        <c:axId val="192797312"/>
+        <c:axId val="192692608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197384832"/>
+        <c:axId val="192797312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197017984"/>
+        <c:crossAx val="192692608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1816,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197017984"/>
+        <c:axId val="192692608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197384832"/>
+        <c:crossAx val="192797312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,7 +1893,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1955,8 +1954,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="394"/>
-        <c:axId val="197176320"/>
-        <c:axId val="197194496"/>
+        <c:axId val="200848512"/>
+        <c:axId val="200850048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2014,11 +2013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197176320"/>
-        <c:axId val="197194496"/>
+        <c:axId val="200848512"/>
+        <c:axId val="200850048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197176320"/>
+        <c:axId val="200848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197194496"/>
+        <c:crossAx val="200850048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2036,7 +2035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197194496"/>
+        <c:axId val="200850048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,14 +2046,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197176320"/>
+        <c:crossAx val="200848512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2305,11 +2303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197273856"/>
-        <c:axId val="197275648"/>
+        <c:axId val="194062592"/>
+        <c:axId val="194064384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197273856"/>
+        <c:axId val="194062592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197275648"/>
+        <c:crossAx val="194064384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2327,7 +2325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197275648"/>
+        <c:axId val="194064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,14 +2336,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197273856"/>
+        <c:crossAx val="194062592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2390,7 +2387,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2498,7 +2494,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2548,7 +2543,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2610,8 +2604,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="394"/>
-        <c:axId val="197326720"/>
-        <c:axId val="197328256"/>
+        <c:axId val="201197440"/>
+        <c:axId val="201198976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2669,11 +2663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197326720"/>
-        <c:axId val="197328256"/>
+        <c:axId val="201197440"/>
+        <c:axId val="201198976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197326720"/>
+        <c:axId val="201197440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197328256"/>
+        <c:crossAx val="201198976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197328256"/>
+        <c:axId val="201198976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,14 +2696,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197326720"/>
+        <c:crossAx val="201197440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2960,11 +2953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203135232"/>
-        <c:axId val="203153408"/>
+        <c:axId val="200120576"/>
+        <c:axId val="200138752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203135232"/>
+        <c:axId val="200120576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,7 +2967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203153408"/>
+        <c:crossAx val="200138752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2982,7 +2975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203153408"/>
+        <c:axId val="200138752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,14 +2986,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203135232"/>
+        <c:crossAx val="200120576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3045,7 +3037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3153,7 +3144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3264,8 +3254,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="394"/>
-        <c:axId val="203360128"/>
-        <c:axId val="203361664"/>
+        <c:axId val="200345472"/>
+        <c:axId val="200347008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3323,11 +3313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203360128"/>
-        <c:axId val="203361664"/>
+        <c:axId val="200345472"/>
+        <c:axId val="200347008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203360128"/>
+        <c:axId val="200345472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,7 +3327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203361664"/>
+        <c:crossAx val="200347008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3345,7 +3335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203361664"/>
+        <c:axId val="200347008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3356,7 +3346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203360128"/>
+        <c:crossAx val="200345472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3613,11 +3603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203424896"/>
-        <c:axId val="203426432"/>
+        <c:axId val="200410240"/>
+        <c:axId val="200411776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203424896"/>
+        <c:axId val="200410240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,7 +3617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203426432"/>
+        <c:crossAx val="200411776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3635,7 +3625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203426432"/>
+        <c:axId val="200411776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203424896"/>
+        <c:crossAx val="200410240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3856,6 +3846,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3918,8 +3909,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="394"/>
-        <c:axId val="203495680"/>
-        <c:axId val="203513856"/>
+        <c:axId val="200481024"/>
+        <c:axId val="200499200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3939,7 +3930,7 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:numFmt formatCode="General&quot;万&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3978,11 +3969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203495680"/>
-        <c:axId val="203513856"/>
+        <c:axId val="200481024"/>
+        <c:axId val="200499200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203495680"/>
+        <c:axId val="200481024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +3983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203513856"/>
+        <c:crossAx val="200499200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4000,7 +3991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203513856"/>
+        <c:axId val="200499200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,13 +4002,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203495680"/>
+        <c:crossAx val="200481024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4268,11 +4260,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197120000"/>
-        <c:axId val="197121536"/>
+        <c:axId val="193906176"/>
+        <c:axId val="193907712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197120000"/>
+        <c:axId val="193906176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4282,7 +4274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197121536"/>
+        <c:crossAx val="193907712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4290,7 +4282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197121536"/>
+        <c:axId val="193907712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,14 +4293,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197120000"/>
+        <c:crossAx val="193906176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4353,7 +4344,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4461,7 +4451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5294,7 +5283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -6852,8 +6841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
